--- a/DataSetExplorerTests/DataFactories/TestData/BurningKnight1.xlsx
+++ b/DataSetExplorerTests/DataFactories/TestData/BurningKnight1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSInput\BurningKnight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ccadet\platform\DataSetExplorerTests\DataFactories\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B3FE10-ABF7-4CFB-8B93-A5120248ECEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC723AD8-2F20-466E-AC8F-D333E7C55274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Long Method Smell" sheetId="1" r:id="rId1"/>
-    <sheet name="Large Class Smell" sheetId="2" r:id="rId2"/>
+    <sheet name="Long Method" sheetId="1" r:id="rId1"/>
+    <sheet name="Large Class" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1129,9 +1129,6 @@
     <t>BurningKnight.level.Painter</t>
   </si>
   <si>
-    <t>Aseprite.AsepriteFile.AsperiteFile(string)</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -1144,9 +1141,6 @@
     <t>Related to loops.</t>
   </si>
   <si>
-    <t>Aseprite.AsepriteFile.AsperiteFile(string, ContentBuildLogger)</t>
-  </si>
-  <si>
     <t>398; Complex control structure</t>
   </si>
   <si>
@@ -1505,6 +1499,12 @@
   </si>
   <si>
     <t>Burning Knight</t>
+  </si>
+  <si>
+    <t>Aseprite.AsepriteFile.AsepriteFile(string)</t>
+  </si>
+  <si>
+    <t>Aseprite.AsepriteFile.AsepriteFile(string, ContentBuildLogger)</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1698,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1742,14 +1742,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
         </patternFill>
@@ -1758,8 +1750,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2019,32 +2011,32 @@
   </sheetPr>
   <dimension ref="A1:M308"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="61.07421875" customWidth="1"/>
+    <col min="2" max="2" width="10.765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.765625" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="11.53515625" customWidth="1"/>
+    <col min="8" max="8" width="11.53515625" customWidth="1"/>
+    <col min="10" max="10" width="11.53515625" customWidth="1"/>
+    <col min="12" max="12" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>0</v>
@@ -2059,12 +2051,12 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C2" s="22">
         <v>1</v>
@@ -2090,15 +2082,15 @@
       </c>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -2131,32 +2123,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>365</v>
+        <v>489</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>369</v>
-      </c>
       <c r="J4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2164,24 +2156,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="6" t="s">
@@ -2191,7 +2183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2203,16 +2195,16 @@
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>10</v>
@@ -2221,7 +2213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2245,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2269,7 +2261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2278,19 +2270,19 @@
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>10</v>
@@ -2299,7 +2291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -2311,16 +2303,16 @@
         <v>10</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>10</v>
@@ -2329,7 +2321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2353,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2377,7 +2369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2401,7 +2393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -2425,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -2473,7 +2465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -2521,7 +2513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -2545,7 +2537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2569,7 +2561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -2593,7 +2585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -2617,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -2641,7 +2633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -2665,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -2689,7 +2681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -2713,7 +2705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -2737,7 +2729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -2761,7 +2753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -2785,9 +2777,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="5">
@@ -2809,7 +2801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -2833,7 +2825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -2857,7 +2849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
@@ -2881,7 +2873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>37</v>
       </c>
@@ -2905,7 +2897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>38</v>
       </c>
@@ -2929,7 +2921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>39</v>
       </c>
@@ -2938,25 +2930,25 @@
         <v>2</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>40</v>
       </c>
@@ -2980,9 +2972,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="5">
@@ -3004,7 +2996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>41</v>
       </c>
@@ -3028,7 +3020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>42</v>
       </c>
@@ -3052,7 +3044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>43</v>
       </c>
@@ -3076,7 +3068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>44</v>
       </c>
@@ -3100,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
@@ -3124,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>46</v>
       </c>
@@ -3139,10 +3131,10 @@
         <v>10</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>10</v>
@@ -3151,7 +3143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
@@ -3160,13 +3152,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>10</v>
@@ -3175,7 +3167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>48</v>
       </c>
@@ -3199,7 +3191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>49</v>
       </c>
@@ -3223,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>50</v>
       </c>
@@ -3247,7 +3239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>51</v>
       </c>
@@ -3271,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>52</v>
       </c>
@@ -3295,7 +3287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>53</v>
       </c>
@@ -3319,7 +3311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>54</v>
       </c>
@@ -3343,7 +3335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>55</v>
       </c>
@@ -3367,7 +3359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>56</v>
       </c>
@@ -3376,16 +3368,16 @@
         <v>2</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>10</v>
@@ -3394,7 +3386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>57</v>
       </c>
@@ -3418,9 +3410,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="5">
@@ -3442,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>58</v>
       </c>
@@ -3466,9 +3458,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="5">
@@ -3491,9 +3483,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="5">
@@ -3515,7 +3507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
@@ -3527,10 +3519,10 @@
         <v>10</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>10</v>
@@ -3542,7 +3534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
@@ -3554,28 +3546,28 @@
         <v>10</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G61" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="L61" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -3590,10 +3582,10 @@
         <v>10</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>10</v>
@@ -3602,7 +3594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>62</v>
       </c>
@@ -3626,7 +3618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
@@ -3650,7 +3642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>64</v>
       </c>
@@ -3674,7 +3666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>65</v>
       </c>
@@ -3698,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>66</v>
       </c>
@@ -3722,7 +3714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -3734,16 +3726,16 @@
         <v>10</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>10</v>
@@ -3752,7 +3744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>68</v>
       </c>
@@ -3776,7 +3768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>69</v>
       </c>
@@ -3800,7 +3792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>70</v>
       </c>
@@ -3824,7 +3816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>71</v>
       </c>
@@ -3848,7 +3840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>72</v>
       </c>
@@ -3872,7 +3864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>73</v>
       </c>
@@ -3896,7 +3888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>74</v>
       </c>
@@ -3920,7 +3912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>75</v>
       </c>
@@ -3944,7 +3936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>76</v>
       </c>
@@ -3968,7 +3960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>77</v>
       </c>
@@ -3992,7 +3984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>78</v>
       </c>
@@ -4016,7 +4008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -4025,25 +4017,25 @@
         <v>3</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L80" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
@@ -4052,19 +4044,19 @@
         <v>2</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>10</v>
@@ -4073,7 +4065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>81</v>
       </c>
@@ -4097,7 +4089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -4112,10 +4104,10 @@
         <v>10</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>10</v>
@@ -4124,7 +4116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>83</v>
       </c>
@@ -4148,7 +4140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>84</v>
       </c>
@@ -4172,7 +4164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>85</v>
       </c>
@@ -4196,7 +4188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -4208,24 +4200,24 @@
         <v>10</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L87" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="5">
@@ -4247,7 +4239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>87</v>
       </c>
@@ -4271,7 +4263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>88</v>
       </c>
@@ -4295,7 +4287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>89</v>
       </c>
@@ -4319,7 +4311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>90</v>
       </c>
@@ -4343,9 +4335,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="5">
@@ -4367,7 +4359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>91</v>
       </c>
@@ -4391,9 +4383,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="5">
@@ -4415,7 +4407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>92</v>
       </c>
@@ -4427,10 +4419,10 @@
         <v>10</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>10</v>
@@ -4442,7 +4434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>93</v>
       </c>
@@ -4454,16 +4446,16 @@
         <v>10</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>10</v>
@@ -4472,9 +4464,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="5">
@@ -4496,7 +4488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>94</v>
       </c>
@@ -4520,7 +4512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>95</v>
       </c>
@@ -4544,7 +4536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>96</v>
       </c>
@@ -4568,7 +4560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>97</v>
       </c>
@@ -4580,10 +4572,10 @@
         <v>10</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>10</v>
@@ -4592,7 +4584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -4604,13 +4596,13 @@
         <v>10</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>10</v>
@@ -4619,7 +4611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
         <v>99</v>
       </c>
@@ -4643,7 +4635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>100</v>
       </c>
@@ -4667,9 +4659,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="5">
@@ -4691,7 +4683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>101</v>
       </c>
@@ -4715,7 +4707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>102</v>
       </c>
@@ -4739,9 +4731,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="5">
@@ -4763,7 +4755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>103</v>
       </c>
@@ -4787,7 +4779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>104</v>
       </c>
@@ -4811,9 +4803,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="5">
@@ -4835,7 +4827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>105</v>
       </c>
@@ -4859,9 +4851,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="5">
@@ -4883,7 +4875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>106</v>
       </c>
@@ -4907,9 +4899,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="5">
@@ -4919,16 +4911,16 @@
         <v>10</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J116" s="6" t="s">
         <v>10</v>
@@ -4937,7 +4929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>107</v>
       </c>
@@ -4961,7 +4953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>108</v>
       </c>
@@ -4985,9 +4977,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="5">
@@ -5009,7 +5001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>109</v>
       </c>
@@ -5033,7 +5025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>110</v>
       </c>
@@ -5057,9 +5049,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="5">
@@ -5081,7 +5073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>111</v>
       </c>
@@ -5105,9 +5097,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B124" s="12"/>
       <c r="C124" s="5">
@@ -5129,7 +5121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>112</v>
       </c>
@@ -5153,7 +5145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>113</v>
       </c>
@@ -5177,9 +5169,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B127" s="12"/>
       <c r="C127" s="5">
@@ -5201,7 +5193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>114</v>
       </c>
@@ -5225,7 +5217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>115</v>
       </c>
@@ -5249,9 +5241,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="5">
@@ -5273,7 +5265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>116</v>
       </c>
@@ -5297,7 +5289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>117</v>
       </c>
@@ -5321,7 +5313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>118</v>
       </c>
@@ -5336,10 +5328,10 @@
         <v>10</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J133" s="6" t="s">
         <v>10</v>
@@ -5348,7 +5340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>119</v>
       </c>
@@ -5357,15 +5349,15 @@
         <v>2</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E134" s="14"/>
       <c r="F134" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G134" s="14"/>
       <c r="H134" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J134" s="6" t="s">
         <v>10</v>
@@ -5374,9 +5366,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="5">
@@ -5398,7 +5390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>120</v>
       </c>
@@ -5422,7 +5414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>121</v>
       </c>
@@ -5431,13 +5423,13 @@
         <v>2</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J137" s="6" t="s">
         <v>10</v>
@@ -5446,9 +5438,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="5">
@@ -5470,7 +5462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>122</v>
       </c>
@@ -5485,10 +5477,10 @@
         <v>10</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>10</v>
@@ -5497,9 +5489,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="5">
@@ -5521,7 +5513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>123</v>
       </c>
@@ -5533,7 +5525,7 @@
         <v>10</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>10</v>
@@ -5545,9 +5537,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="5">
@@ -5569,7 +5561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>124</v>
       </c>
@@ -5593,9 +5585,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="5">
@@ -5617,7 +5609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>125</v>
       </c>
@@ -5641,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>126</v>
       </c>
@@ -5665,7 +5657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>127</v>
       </c>
@@ -5674,16 +5666,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J147" s="6" t="s">
         <v>10</v>
@@ -5692,7 +5684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>128</v>
       </c>
@@ -5716,7 +5708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>129</v>
       </c>
@@ -5725,31 +5717,31 @@
         <v>3</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I149" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="J149" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="K149" s="6" t="s">
-        <v>444</v>
-      </c>
       <c r="L149" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>130</v>
       </c>
@@ -5773,7 +5765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>131</v>
       </c>
@@ -5797,7 +5789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>132</v>
       </c>
@@ -5821,7 +5813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>133</v>
       </c>
@@ -5830,28 +5822,28 @@
         <v>3</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L153" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>134</v>
       </c>
@@ -5863,7 +5855,7 @@
         <v>10</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>10</v>
@@ -5875,7 +5867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>135</v>
       </c>
@@ -5890,22 +5882,22 @@
         <v>10</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I155" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L155" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>136</v>
       </c>
@@ -5917,13 +5909,13 @@
         <v>10</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J156" s="6" t="s">
         <v>10</v>
@@ -5932,7 +5924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>137</v>
       </c>
@@ -5956,7 +5948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>138</v>
       </c>
@@ -5968,10 +5960,10 @@
         <v>10</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>10</v>
@@ -5983,9 +5975,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B159" s="12"/>
       <c r="C159" s="5">
@@ -6007,9 +5999,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B160" s="12"/>
       <c r="C160" s="5">
@@ -6031,7 +6023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>139</v>
       </c>
@@ -6055,9 +6047,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="5">
@@ -6079,7 +6071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>140</v>
       </c>
@@ -6103,7 +6095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>141</v>
       </c>
@@ -6127,7 +6119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>142</v>
       </c>
@@ -6151,7 +6143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>143</v>
       </c>
@@ -6175,7 +6167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>144</v>
       </c>
@@ -6199,7 +6191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
         <v>145</v>
       </c>
@@ -6223,7 +6215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>146</v>
       </c>
@@ -6247,7 +6239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>147</v>
       </c>
@@ -6271,7 +6263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>148</v>
       </c>
@@ -6283,22 +6275,22 @@
         <v>10</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K171" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L171" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>149</v>
       </c>
@@ -6322,7 +6314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>150</v>
       </c>
@@ -6346,7 +6338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>151</v>
       </c>
@@ -6361,16 +6353,16 @@
         <v>10</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L174" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>152</v>
       </c>
@@ -6394,7 +6386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>153</v>
       </c>
@@ -6403,22 +6395,22 @@
         <v>2</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L176" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>154</v>
       </c>
@@ -6442,9 +6434,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B178" s="12"/>
       <c r="C178" s="5">
@@ -6466,7 +6458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>155</v>
       </c>
@@ -6475,19 +6467,19 @@
         <v>2</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J179" s="6" t="s">
         <v>10</v>
@@ -6496,7 +6488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>156</v>
       </c>
@@ -6520,7 +6512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
         <v>157</v>
       </c>
@@ -6544,7 +6536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>158</v>
       </c>
@@ -6568,7 +6560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>159</v>
       </c>
@@ -6592,7 +6584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>160</v>
       </c>
@@ -6616,7 +6608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>161</v>
       </c>
@@ -6625,19 +6617,19 @@
         <v>2</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J185" s="6" t="s">
         <v>10</v>
@@ -6646,9 +6638,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B186" s="12"/>
       <c r="C186" s="5">
@@ -6670,7 +6662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>162</v>
       </c>
@@ -6694,7 +6686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>163</v>
       </c>
@@ -6709,10 +6701,10 @@
         <v>10</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I188" s="16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J188" s="6" t="s">
         <v>10</v>
@@ -6721,7 +6713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>164</v>
       </c>
@@ -6745,7 +6737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>165</v>
       </c>
@@ -6769,7 +6761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>166</v>
       </c>
@@ -6781,16 +6773,16 @@
         <v>10</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J191" s="6" t="s">
         <v>10</v>
@@ -6799,7 +6791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>167</v>
       </c>
@@ -6823,7 +6815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>168</v>
       </c>
@@ -6847,7 +6839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>169</v>
       </c>
@@ -6859,22 +6851,22 @@
         <v>10</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L194" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>170</v>
       </c>
@@ -6898,7 +6890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>171</v>
       </c>
@@ -6922,7 +6914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -6937,7 +6929,7 @@
         <v>10</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J197" s="6" t="s">
         <v>10</v>
@@ -6946,7 +6938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>173</v>
       </c>
@@ -6970,7 +6962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -6982,16 +6974,16 @@
         <v>10</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H199" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J199" s="6" t="s">
         <v>10</v>
@@ -7000,7 +6992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>175</v>
       </c>
@@ -7024,7 +7016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>176</v>
       </c>
@@ -7048,7 +7040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>177</v>
       </c>
@@ -7072,7 +7064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>178</v>
       </c>
@@ -7096,7 +7088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>179</v>
       </c>
@@ -7108,10 +7100,10 @@
         <v>10</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G204" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>10</v>
@@ -7123,7 +7115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>180</v>
       </c>
@@ -7147,7 +7139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>181</v>
       </c>
@@ -7162,7 +7154,7 @@
         <v>10</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J206" s="6" t="s">
         <v>10</v>
@@ -7171,7 +7163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>182</v>
       </c>
@@ -7195,7 +7187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>183</v>
       </c>
@@ -7219,7 +7211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>184</v>
       </c>
@@ -7243,7 +7235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>185</v>
       </c>
@@ -7267,7 +7259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>186</v>
       </c>
@@ -7291,7 +7283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>187</v>
       </c>
@@ -7315,7 +7307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
         <v>188</v>
       </c>
@@ -7339,7 +7331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
         <v>189</v>
       </c>
@@ -7363,7 +7355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
         <v>190</v>
       </c>
@@ -7387,7 +7379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
         <v>191</v>
       </c>
@@ -7411,7 +7403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>192</v>
       </c>
@@ -7426,16 +7418,16 @@
         <v>10</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L217" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
         <v>193</v>
       </c>
@@ -7459,7 +7451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>194</v>
       </c>
@@ -7474,10 +7466,10 @@
         <v>10</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I219" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J219" s="6" t="s">
         <v>10</v>
@@ -7486,7 +7478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>195</v>
       </c>
@@ -7510,7 +7502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
         <v>196</v>
       </c>
@@ -7534,7 +7526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
         <v>197</v>
       </c>
@@ -7558,7 +7550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>198</v>
       </c>
@@ -7582,7 +7574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>199</v>
       </c>
@@ -7606,7 +7598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
         <v>200</v>
       </c>
@@ -7630,7 +7622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="s">
         <v>201</v>
       </c>
@@ -7654,7 +7646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="s">
         <v>202</v>
       </c>
@@ -7678,7 +7670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>203</v>
       </c>
@@ -7702,7 +7694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>204</v>
       </c>
@@ -7726,7 +7718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>205</v>
       </c>
@@ -7738,22 +7730,22 @@
         <v>10</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L230" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>206</v>
       </c>
@@ -7765,25 +7757,25 @@
         <v>10</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L231" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>207</v>
       </c>
@@ -7792,28 +7784,28 @@
         <v>3</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L232" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -7822,25 +7814,25 @@
         <v>2</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I233" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L233" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>209</v>
       </c>
@@ -7853,23 +7845,23 @@
       </c>
       <c r="E234" s="17"/>
       <c r="F234" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I234" s="17"/>
       <c r="J234" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L234" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>210</v>
       </c>
@@ -7878,29 +7870,29 @@
         <v>3</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E235" s="17"/>
       <c r="F235" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L235" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>211</v>
       </c>
@@ -7909,29 +7901,29 @@
         <v>3</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E236" s="17"/>
       <c r="F236" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L236" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>212</v>
       </c>
@@ -7940,29 +7932,29 @@
         <v>3</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E237" s="17"/>
       <c r="F237" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L237" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>213</v>
       </c>
@@ -7974,16 +7966,16 @@
         <v>10</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J238" s="6" t="s">
         <v>10</v>
@@ -7992,7 +7984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>214</v>
       </c>
@@ -8001,29 +7993,29 @@
         <v>3</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E239" s="17"/>
       <c r="F239" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L239" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>215</v>
       </c>
@@ -8032,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E240" s="17"/>
       <c r="F240" s="6" t="s">
@@ -8040,19 +8032,19 @@
       </c>
       <c r="G240" s="17"/>
       <c r="H240" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I240" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L240" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>216</v>
       </c>
@@ -8065,16 +8057,16 @@
       </c>
       <c r="E241" s="17"/>
       <c r="F241" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J241" s="6" t="s">
         <v>10</v>
@@ -8083,7 +8075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>217</v>
       </c>
@@ -8096,16 +8088,16 @@
       </c>
       <c r="E242" s="17"/>
       <c r="F242" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J242" s="6" t="s">
         <v>10</v>
@@ -8114,7 +8106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>218</v>
       </c>
@@ -8138,7 +8130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>219</v>
       </c>
@@ -8162,7 +8154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>220</v>
       </c>
@@ -8186,7 +8178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
         <v>221</v>
       </c>
@@ -8210,7 +8202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A247" s="12" t="s">
         <v>222</v>
       </c>
@@ -8234,7 +8226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
         <v>223</v>
       </c>
@@ -8258,7 +8250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
         <v>224</v>
       </c>
@@ -8282,7 +8274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
         <v>225</v>
       </c>
@@ -8306,7 +8298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="s">
         <v>226</v>
       </c>
@@ -8330,7 +8322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A252" s="12" t="s">
         <v>227</v>
       </c>
@@ -8354,7 +8346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
         <v>228</v>
       </c>
@@ -8378,7 +8370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
         <v>229</v>
       </c>
@@ -8402,7 +8394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="s">
         <v>230</v>
       </c>
@@ -8426,7 +8418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -8439,16 +8431,16 @@
       </c>
       <c r="E256" s="17"/>
       <c r="F256" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J256" s="6" t="s">
         <v>10</v>
@@ -8457,7 +8449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>232</v>
       </c>
@@ -8470,16 +8462,16 @@
       </c>
       <c r="E257" s="17"/>
       <c r="F257" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H257" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J257" s="6" t="s">
         <v>10</v>
@@ -8488,7 +8480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>233</v>
       </c>
@@ -8512,7 +8504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A259" s="12" t="s">
         <v>234</v>
       </c>
@@ -8536,7 +8528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>235</v>
       </c>
@@ -8553,10 +8545,10 @@
       </c>
       <c r="G260" s="6"/>
       <c r="H260" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J260" s="6" t="s">
         <v>10</v>
@@ -8565,7 +8557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>236</v>
       </c>
@@ -8589,7 +8581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="s">
         <v>237</v>
       </c>
@@ -8613,7 +8605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>238</v>
       </c>
@@ -8630,10 +8622,10 @@
       </c>
       <c r="G263" s="6"/>
       <c r="H263" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J263" s="6" t="s">
         <v>10</v>
@@ -8642,7 +8634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>239</v>
       </c>
@@ -8651,29 +8643,29 @@
         <v>3</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E264" s="17"/>
       <c r="F264" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I264" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L264" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>240</v>
       </c>
@@ -8697,7 +8689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
         <v>241</v>
       </c>
@@ -8721,7 +8713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>242</v>
       </c>
@@ -8745,7 +8737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>243</v>
       </c>
@@ -8754,28 +8746,28 @@
         <v>3</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H268" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I268" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J268" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L268" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>244</v>
       </c>
@@ -8784,10 +8776,10 @@
         <v>2</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E269" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F269" s="6" t="s">
         <v>10</v>
@@ -8802,9 +8794,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B270" s="6"/>
       <c r="C270" s="5">
@@ -8814,16 +8806,16 @@
         <v>10</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H270" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J270" s="6" t="s">
         <v>10</v>
@@ -8832,7 +8824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A271" s="12" t="s">
         <v>245</v>
       </c>
@@ -8856,7 +8848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>246</v>
       </c>
@@ -8865,19 +8857,19 @@
         <v>3</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G272" s="15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H272" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J272" s="6" t="s">
         <v>10</v>
@@ -8886,7 +8878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>247</v>
       </c>
@@ -8898,13 +8890,13 @@
         <v>10</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H273" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I273" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J273" s="6" t="s">
         <v>10</v>
@@ -8913,7 +8905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>248</v>
       </c>
@@ -8925,16 +8917,16 @@
         <v>10</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H274" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I274" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J274" s="6" t="s">
         <v>10</v>
@@ -8943,7 +8935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>249</v>
       </c>
@@ -8952,19 +8944,19 @@
         <v>3</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H275" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I275" s="15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J275" s="6" t="s">
         <v>10</v>
@@ -8973,7 +8965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
         <v>250</v>
       </c>
@@ -8997,7 +8989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>251</v>
       </c>
@@ -9012,10 +9004,10 @@
         <v>10</v>
       </c>
       <c r="H277" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I277" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J277" s="6" t="s">
         <v>10</v>
@@ -9024,7 +9016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>252</v>
       </c>
@@ -9037,16 +9029,16 @@
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G278" s="15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H278" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I278" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J278" s="6" t="s">
         <v>10</v>
@@ -9055,7 +9047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>253</v>
       </c>
@@ -9067,16 +9059,16 @@
         <v>10</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H279" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I279" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J279" s="6" t="s">
         <v>10</v>
@@ -9085,7 +9077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>254</v>
       </c>
@@ -9097,16 +9089,16 @@
         <v>10</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H280" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I280" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J280" s="6" t="s">
         <v>10</v>
@@ -9115,7 +9107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>255</v>
       </c>
@@ -9128,16 +9120,16 @@
       </c>
       <c r="E281" s="17"/>
       <c r="F281" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H281" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I281" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J281" s="6" t="s">
         <v>10</v>
@@ -9146,7 +9138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>256</v>
       </c>
@@ -9159,16 +9151,16 @@
       </c>
       <c r="E282" s="17"/>
       <c r="F282" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G282" s="15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H282" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I282" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J282" s="6" t="s">
         <v>10</v>
@@ -9177,7 +9169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>257</v>
       </c>
@@ -9189,10 +9181,10 @@
         <v>10</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H283" s="6" t="s">
         <v>10</v>
@@ -9204,7 +9196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>258</v>
       </c>
@@ -9213,20 +9205,20 @@
         <v>3</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G284" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H284" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I284" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J284" s="6" t="s">
         <v>10</v>
@@ -9235,7 +9227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A285" s="12" t="s">
         <v>259</v>
       </c>
@@ -9259,7 +9251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>260</v>
       </c>
@@ -9268,20 +9260,20 @@
         <v>3</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G286" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H286" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I286" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J286" s="6" t="s">
         <v>10</v>
@@ -9290,7 +9282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A287" s="12" t="s">
         <v>261</v>
       </c>
@@ -9314,7 +9306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
         <v>262</v>
       </c>
@@ -9338,7 +9330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
         <v>263</v>
       </c>
@@ -9362,7 +9354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>264</v>
       </c>
@@ -9374,10 +9366,10 @@
         <v>10</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H290" s="6" t="s">
         <v>10</v>
@@ -9389,7 +9381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
         <v>265</v>
       </c>
@@ -9413,7 +9405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A292" s="12" t="s">
         <v>266</v>
       </c>
@@ -9437,7 +9429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A293" s="12" t="s">
         <v>267</v>
       </c>
@@ -9461,7 +9453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A294" s="12" t="s">
         <v>268</v>
       </c>
@@ -9485,7 +9477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A295" s="12" t="s">
         <v>269</v>
       </c>
@@ -9509,7 +9501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A296" s="12" t="s">
         <v>270</v>
       </c>
@@ -9533,7 +9525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A297" s="12" t="s">
         <v>271</v>
       </c>
@@ -9557,7 +9549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A298" s="12" t="s">
         <v>272</v>
       </c>
@@ -9581,7 +9573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
         <v>273</v>
       </c>
@@ -9605,7 +9597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
         <v>274</v>
       </c>
@@ -9629,7 +9621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>275</v>
       </c>
@@ -9644,10 +9636,10 @@
         <v>10</v>
       </c>
       <c r="H301" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I301" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J301" s="6" t="s">
         <v>10</v>
@@ -9656,7 +9648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
         <v>276</v>
       </c>
@@ -9680,7 +9672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
         <v>277</v>
       </c>
@@ -9704,7 +9696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>278</v>
       </c>
@@ -9719,10 +9711,10 @@
         <v>10</v>
       </c>
       <c r="H304" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I304" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J304" s="6" t="s">
         <v>10</v>
@@ -9731,7 +9723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A305" s="12" t="s">
         <v>279</v>
       </c>
@@ -9755,7 +9747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A306" s="12" t="s">
         <v>280</v>
       </c>
@@ -9779,7 +9771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>281</v>
       </c>
@@ -9791,16 +9783,16 @@
         <v>10</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H307" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I307" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J307" s="6" t="s">
         <v>10</v>
@@ -9809,7 +9801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A308" s="12" t="s">
         <v>282</v>
       </c>
@@ -9843,37 +9835,37 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B268 C7:L133 I134:L134 C135:L308 A3:M5 M6:M268 D1:M1 D2:L2">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134:H134">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9900,31 +9892,31 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.3046875" customWidth="1"/>
+    <col min="2" max="2" width="10.765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.765625" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="11.53515625" customWidth="1"/>
+    <col min="8" max="8" width="11.53515625" customWidth="1"/>
+    <col min="10" max="10" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>0</v>
@@ -9937,12 +9929,12 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C2" s="22">
         <v>1</v>
@@ -9964,15 +9956,15 @@
       </c>
       <c r="K2" s="27"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -9999,7 +9991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>286</v>
       </c>
@@ -10020,7 +10012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>287</v>
       </c>
@@ -10029,25 +10021,25 @@
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>288</v>
       </c>
@@ -10068,7 +10060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>289</v>
       </c>
@@ -10089,7 +10081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>290</v>
       </c>
@@ -10110,7 +10102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>291</v>
       </c>
@@ -10131,7 +10123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>292</v>
       </c>
@@ -10152,7 +10144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>293</v>
       </c>
@@ -10173,7 +10165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>294</v>
       </c>
@@ -10194,7 +10186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>295</v>
       </c>
@@ -10206,10 +10198,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>10</v>
@@ -10218,7 +10210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>296</v>
       </c>
@@ -10233,16 +10225,16 @@
         <v>10</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>297</v>
       </c>
@@ -10263,7 +10255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>298</v>
       </c>
@@ -10284,7 +10276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>299</v>
       </c>
@@ -10305,7 +10297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>300</v>
       </c>
@@ -10326,7 +10318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>301</v>
       </c>
@@ -10341,16 +10333,16 @@
         <v>10</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>302</v>
       </c>
@@ -10371,7 +10363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>303</v>
       </c>
@@ -10383,10 +10375,10 @@
         <v>10</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>10</v>
@@ -10395,7 +10387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>304</v>
       </c>
@@ -10416,7 +10408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>305</v>
       </c>
@@ -10425,10 +10417,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>10</v>
@@ -10440,7 +10432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>306</v>
       </c>
@@ -10449,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>10</v>
@@ -10464,7 +10456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>307</v>
       </c>
@@ -10485,7 +10477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>308</v>
       </c>
@@ -10497,10 +10489,10 @@
         <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>10</v>
@@ -10509,7 +10501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>309</v>
       </c>
@@ -10530,7 +10522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>310</v>
       </c>
@@ -10551,7 +10543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>311</v>
       </c>
@@ -10560,28 +10552,28 @@
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>312</v>
       </c>
@@ -10602,7 +10594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>313</v>
       </c>
@@ -10623,7 +10615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>314</v>
       </c>
@@ -10638,16 +10630,16 @@
         <v>10</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>315</v>
       </c>
@@ -10662,16 +10654,16 @@
         <v>10</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>316</v>
       </c>
@@ -10692,7 +10684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>317</v>
       </c>
@@ -10704,10 +10696,10 @@
         <v>10</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>10</v>
@@ -10716,7 +10708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>318</v>
       </c>
@@ -10737,7 +10729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>319</v>
       </c>
@@ -10746,28 +10738,28 @@
         <v>2</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>320</v>
       </c>
@@ -10788,7 +10780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>321</v>
       </c>
@@ -10809,7 +10801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>322</v>
       </c>
@@ -10830,7 +10822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>323</v>
       </c>
@@ -10851,7 +10843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>324</v>
       </c>
@@ -10872,7 +10864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>325</v>
       </c>
@@ -10887,16 +10879,16 @@
         <v>10</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>326</v>
       </c>
@@ -10917,7 +10909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>327</v>
       </c>
@@ -10938,7 +10930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>328</v>
       </c>
@@ -10959,7 +10951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>329</v>
       </c>
@@ -10980,7 +10972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>330</v>
       </c>
@@ -11001,7 +10993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>331</v>
       </c>
@@ -11016,16 +11008,16 @@
         <v>10</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>332</v>
       </c>
@@ -11046,7 +11038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>333</v>
       </c>
@@ -11067,7 +11059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>334</v>
       </c>
@@ -11088,7 +11080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>335</v>
       </c>
@@ -11109,7 +11101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>336</v>
       </c>
@@ -11130,7 +11122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>337</v>
       </c>
@@ -11151,7 +11143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>338</v>
       </c>
@@ -11166,16 +11158,16 @@
         <v>10</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>339</v>
       </c>
@@ -11196,7 +11188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>340</v>
       </c>
@@ -11211,16 +11203,16 @@
         <v>10</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J58" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>341</v>
       </c>
@@ -11241,7 +11233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>342</v>
       </c>
@@ -11262,7 +11254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>343</v>
       </c>
@@ -11283,7 +11275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>344</v>
       </c>
@@ -11304,7 +11296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>345</v>
       </c>
@@ -11325,7 +11317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>346</v>
       </c>
@@ -11337,10 +11329,10 @@
         <v>10</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>10</v>
@@ -11349,7 +11341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>347</v>
       </c>
@@ -11361,22 +11353,22 @@
         <v>10</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>348</v>
       </c>
@@ -11397,7 +11389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>349</v>
       </c>
@@ -11418,7 +11410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>350</v>
       </c>
@@ -11439,7 +11431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>351</v>
       </c>
@@ -11460,7 +11452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>352</v>
       </c>
@@ -11481,7 +11473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>353</v>
       </c>
@@ -11502,7 +11494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>354</v>
       </c>
@@ -11514,16 +11506,16 @@
         <v>10</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>355</v>
       </c>
@@ -11544,7 +11536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>356</v>
       </c>
@@ -11565,7 +11557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>357</v>
       </c>
@@ -11586,7 +11578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>358</v>
       </c>
@@ -11607,7 +11599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>359</v>
       </c>
@@ -11628,7 +11620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>360</v>
       </c>
@@ -11649,7 +11641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>361</v>
       </c>
@@ -11658,19 +11650,19 @@
         <v>3</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J79" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>362</v>
       </c>
@@ -11679,19 +11671,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>363</v>
       </c>
@@ -11703,19 +11695,19 @@
         <v>10</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>364</v>
       </c>
@@ -11724,15 +11716,15 @@
         <v>3</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>10</v>
@@ -11747,7 +11739,7 @@
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:K82 D1:K1 D2:J2">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataSetExplorerTests/DataFactories/TestData/BurningKnight1.xlsx
+++ b/DataSetExplorerTests/DataFactories/TestData/BurningKnight1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ccadet\platform\DataSetExplorerTests\DataFactories\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC723AD8-2F20-466E-AC8F-D333E7C55274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FB782A-D2E1-44D7-8541-51209FA7C412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Long Method" sheetId="1" r:id="rId1"/>
-    <sheet name="Large Class" sheetId="2" r:id="rId2"/>
+    <sheet name="Long_Method" sheetId="1" r:id="rId1"/>
+    <sheet name="Large_Class" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1483,12 +1483,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Large Class</t>
-  </si>
-  <si>
-    <t>Long Method</t>
-  </si>
-  <si>
     <t>Annotator ID</t>
   </si>
   <si>
@@ -1505,6 +1499,12 @@
   </si>
   <si>
     <t>Aseprite.AsepriteFile.AsepriteFile(string, ContentBuildLogger)</t>
+  </si>
+  <si>
+    <t>Large_Class</t>
+  </si>
+  <si>
+    <t>Long_Method</t>
   </si>
 </sst>
 </file>
@@ -2013,30 +2013,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.07421875" customWidth="1"/>
-    <col min="2" max="2" width="10.765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.765625" customWidth="1"/>
-    <col min="4" max="4" width="11.53515625" customWidth="1"/>
-    <col min="6" max="6" width="11.53515625" customWidth="1"/>
-    <col min="8" max="8" width="11.53515625" customWidth="1"/>
-    <col min="10" max="10" width="11.53515625" customWidth="1"/>
-    <col min="12" max="12" width="11.53515625" customWidth="1"/>
+    <col min="1" max="1" width="61.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>0</v>
@@ -2051,12 +2051,12 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C2" s="22">
         <v>1</v>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2123,9 +2123,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="5">
@@ -2156,9 +2156,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="6">
@@ -2183,7 +2183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>378</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>37</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>38</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>39</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>40</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>379</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>41</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>42</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>43</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>44</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>46</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>48</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>49</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>50</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>51</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>52</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>53</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>54</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>55</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>56</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>57</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>380</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>58</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>381</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>382</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>62</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>64</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>65</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>66</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>68</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>69</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>70</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>71</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>72</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>73</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>74</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>75</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>76</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>77</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>78</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>81</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>83</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>84</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>85</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>383</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>87</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>88</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>89</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>90</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>384</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>91</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>385</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>92</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>93</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>386</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>94</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>95</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>96</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>97</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>99</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>100</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>387</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>101</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>102</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>388</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>103</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>104</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>389</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>105</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>390</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>106</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>391</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>107</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>108</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>392</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>109</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>110</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>393</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>111</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>394</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>112</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>113</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>395</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>114</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>115</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>396</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>116</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>117</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>118</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>119</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>397</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>120</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>121</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>398</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>122</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>399</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>123</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>400</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>124</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>401</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>125</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>126</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>127</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>128</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>129</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>130</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>131</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>132</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>133</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>134</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>135</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>136</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>137</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>138</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>402</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>403</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>139</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>404</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>140</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>141</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>142</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>143</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>144</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>145</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>146</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>147</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>148</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>149</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>150</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>151</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>152</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>153</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>154</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>405</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>155</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>156</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>157</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>158</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>159</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>160</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>161</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>406</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>162</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>163</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>164</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>165</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>166</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>167</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>168</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>169</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>170</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>171</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>173</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>175</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>176</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>177</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>178</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>179</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>180</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>181</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>182</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
         <v>183</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>184</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
         <v>185</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>186</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>187</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>188</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>189</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>190</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
         <v>191</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>192</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>193</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>194</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>195</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>196</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
         <v>197</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
         <v>198</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
         <v>199</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
         <v>200</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
         <v>201</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
         <v>202</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
         <v>203</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
         <v>204</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>205</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>206</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>207</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>209</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>210</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>211</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>212</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>213</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>214</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>215</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>216</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>217</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
         <v>218</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
         <v>219</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
         <v>220</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
         <v>221</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
         <v>222</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
         <v>223</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
         <v>224</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
         <v>225</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
         <v>226</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
         <v>227</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
         <v>228</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
         <v>229</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
         <v>230</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>232</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
         <v>233</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
         <v>234</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>235</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
         <v>236</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
         <v>237</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>238</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>239</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
         <v>240</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
         <v>241</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>242</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>243</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>244</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>407</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
         <v>245</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>246</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>247</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>248</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>249</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
         <v>250</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>251</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>252</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>253</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>254</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>255</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>256</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>257</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>258</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
         <v>259</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>260</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
         <v>261</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
         <v>262</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
         <v>263</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>264</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
         <v>265</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
         <v>266</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
         <v>267</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
         <v>268</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
         <v>269</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
         <v>270</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
         <v>271</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
         <v>272</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
         <v>273</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
         <v>274</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>275</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
         <v>276</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
         <v>277</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>278</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
         <v>279</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
         <v>280</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>281</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="12" t="s">
         <v>282</v>
       </c>
@@ -9877,7 +9877,7 @@
       <formula1>"No,Yes"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{98654933-4757-475F-8AFA-1E1E6C61684F}">
-      <formula1>"Large Class, Long Method"</formula1>
+      <formula1>"Large_Class, Long_Method"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9894,29 +9894,29 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.3046875" customWidth="1"/>
-    <col min="2" max="2" width="10.765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.765625" customWidth="1"/>
-    <col min="4" max="4" width="11.53515625" customWidth="1"/>
-    <col min="6" max="6" width="11.53515625" customWidth="1"/>
-    <col min="8" max="8" width="11.53515625" customWidth="1"/>
-    <col min="10" max="10" width="11.53515625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>0</v>
@@ -9929,12 +9929,12 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C2" s="22">
         <v>1</v>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="K2" s="27"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>286</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>287</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>288</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>289</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>290</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>291</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>292</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>293</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>294</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>295</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>296</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>297</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>298</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>299</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>300</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>301</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>302</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>303</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>304</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>305</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>306</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>307</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>308</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>309</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>310</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>311</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>312</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>313</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>314</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>315</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>316</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>317</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>318</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>319</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>320</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>321</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>322</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>323</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>324</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>325</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>326</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>327</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>328</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>329</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>330</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>331</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>332</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>333</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>334</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>335</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>336</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>337</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>338</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>339</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>340</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>341</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>342</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>343</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>344</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>345</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>346</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>347</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>348</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>349</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>350</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>351</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>352</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>353</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>354</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>355</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>356</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>357</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>358</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>359</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>360</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>361</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>362</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>363</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>364</v>
       </c>
@@ -11771,7 +11771,7 @@
       <formula1>"No,Yes"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{D3AEB67F-07D5-4127-A35F-0419B9DAB47A}">
-      <formula1>"Large Class, Long Method"</formula1>
+      <formula1>"Large_Class, Long_Method"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
